--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/CREDITOS ABASTOS  11 SUR   AGOSTO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/CREDITOS ABASTOS  11 SUR   AGOSTO 2022.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #08  AGOSTO 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rouss\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #08  AGOSTO 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBE49AC-B8B4-46B4-8212-1DB24A6564D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="1890" windowWidth="13980" windowHeight="8040"/>
+    <workbookView xWindow="5775" yWindow="285" windowWidth="14025" windowHeight="9990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="REMISIONES  ENERO 2022 " sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="REMISIONES  DICIEMBRE   2021  " sheetId="4" r:id="rId1"/>
+    <sheet name="REMISIONES  ENERO 2022 " sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="86">
   <si>
     <t>REMISION</t>
   </si>
@@ -297,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
@@ -439,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +494,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -689,20 +697,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -724,9 +723,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -746,9 +742,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -767,9 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -818,30 +808,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,6 +840,68 @@
     <xf numFmtId="44" fontId="15" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -881,6 +909,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -893,6 +926,117 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A927130C-57DE-4071-94E3-61E730FCCD97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4829177" y="24222078"/>
+          <a:ext cx="628647" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF6AE06-A5F7-42C3-A292-D30E532D46AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5724527" y="24269704"/>
+          <a:ext cx="685798" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1299,2918 +1443,2514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109D9754-C94E-4DF2-8597-EA73132C30A3}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="13.140625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="54" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="48" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="56" customWidth="1"/>
-    <col min="7" max="7" width="18" style="57" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="18" style="51" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="74" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.85546875" style="75" customWidth="1"/>
-    <col min="15" max="15" width="29.42578125" style="75" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="60" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.85546875" style="61" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" style="61" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="L3" s="76" t="s">
+      <c r="I3" s="1"/>
+      <c r="L3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="78" t="s">
+      <c r="N3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="65" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21">
+      <c r="A4" s="76"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17">
         <f t="shared" ref="H4:H98" si="0">E4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="L4" s="66" t="s">
+      <c r="I4" s="1"/>
+      <c r="L4" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="53">
         <v>2890</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="69">
+      <c r="O4" s="55">
         <v>2681.55</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="L5" s="70" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="L5" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="71">
+      <c r="M5" s="57">
         <v>2888</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="73">
+      <c r="O5" s="59">
         <v>8700</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="L6" s="66" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="L6" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="53">
         <v>2889</v>
       </c>
-      <c r="N6" s="68" t="s">
+      <c r="N6" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="69">
+      <c r="O6" s="55">
         <v>2263.0500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15">
+      <c r="A7" s="76"/>
+      <c r="B7" s="11">
         <v>2857</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>2660</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="90">
         <v>44564</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="91">
         <v>2660</v>
       </c>
-      <c r="H7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="L7" s="70" t="s">
+      <c r="H7" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="L7" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="71">
+      <c r="M7" s="57">
         <v>2892</v>
       </c>
-      <c r="N7" s="72" t="s">
+      <c r="N7" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="73">
+      <c r="O7" s="59">
         <v>9516.4699999999993</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="L8" s="66" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="L8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="53">
         <v>2893</v>
       </c>
-      <c r="N8" s="68" t="s">
+      <c r="N8" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="69">
+      <c r="O8" s="55">
         <v>34740.410000000003</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="L9" s="70" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="L9" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="71">
+      <c r="M9" s="57">
         <v>2891</v>
       </c>
-      <c r="N9" s="72" t="s">
+      <c r="N9" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="73">
+      <c r="O9" s="59">
         <v>2242.1999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15">
+      <c r="A10" s="76"/>
+      <c r="B10" s="11">
         <v>2877</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <v>39126</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="88">
         <v>44564</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="89">
         <v>39126</v>
       </c>
-      <c r="H10" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="66" t="s">
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="53">
         <v>2894</v>
       </c>
-      <c r="N10" s="68" t="s">
+      <c r="N10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="69">
+      <c r="O10" s="55">
         <v>6521.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15">
+      <c r="A11" s="76"/>
+      <c r="B11" s="11">
         <v>2878</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <v>9187</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="88">
         <v>44563</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="89">
         <v>9187</v>
       </c>
-      <c r="H11" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="70" t="s">
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="71">
+      <c r="M11" s="57">
         <v>2895</v>
       </c>
-      <c r="N11" s="72" t="s">
+      <c r="N11" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="73">
+      <c r="O11" s="59">
         <v>8515.2000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="15">
+      <c r="A12" s="77"/>
+      <c r="B12" s="11">
         <v>2879</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="66" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="53">
         <v>2896</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="N12" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="69">
+      <c r="O12" s="55">
         <v>1678.54</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15">
+      <c r="A13" s="76"/>
+      <c r="B13" s="11">
         <v>2880</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="70" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="71">
+      <c r="M13" s="57">
         <v>2898</v>
       </c>
-      <c r="N13" s="72" t="s">
+      <c r="N13" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="73">
+      <c r="O13" s="59">
         <v>1230.18</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15">
+      <c r="A14" s="76"/>
+      <c r="B14" s="11">
         <v>2881</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="66" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="53">
         <v>2897</v>
       </c>
-      <c r="N14" s="68" t="s">
+      <c r="N14" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="69">
+      <c r="O14" s="55">
         <v>9553.0300000000007</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15">
+      <c r="A15" s="76"/>
+      <c r="B15" s="11">
         <v>2882</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="19">
         <v>40374</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="88">
         <v>44571</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="89">
         <v>40374</v>
       </c>
-      <c r="H15" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="70" t="s">
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="71">
+      <c r="M15" s="57">
         <v>2899</v>
       </c>
-      <c r="N15" s="72" t="s">
+      <c r="N15" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="73">
+      <c r="O15" s="59">
         <v>773.12</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15">
+      <c r="A16" s="76"/>
+      <c r="B16" s="11">
         <v>2883</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>555</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="88">
         <v>44564</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="89">
         <v>555</v>
       </c>
-      <c r="H16" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="66" t="s">
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="53">
         <v>2900</v>
       </c>
-      <c r="N16" s="68" t="s">
+      <c r="N16" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="69">
+      <c r="O16" s="55">
         <v>4028.56</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15">
+      <c r="A17" s="76"/>
+      <c r="B17" s="11">
         <v>2884</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="70" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="71">
+      <c r="M17" s="57">
         <v>2901</v>
       </c>
-      <c r="N17" s="72" t="s">
+      <c r="N17" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="73">
+      <c r="O17" s="59">
         <v>1284.3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15">
+      <c r="A18" s="76"/>
+      <c r="B18" s="11">
         <v>2885</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="66" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="53">
         <v>2902</v>
       </c>
-      <c r="N18" s="68" t="s">
+      <c r="N18" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="69">
+      <c r="O18" s="55">
         <v>6733</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15">
+      <c r="A19" s="76"/>
+      <c r="B19" s="11">
         <v>2886</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="19">
         <v>34770</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="88">
         <v>44568</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="89">
         <v>34770</v>
       </c>
-      <c r="H19" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="70" t="s">
+      <c r="H19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="71">
+      <c r="M19" s="57">
         <v>2903</v>
       </c>
-      <c r="N19" s="72" t="s">
+      <c r="N19" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="73">
+      <c r="O19" s="59">
         <v>10128.549999999999</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15">
+      <c r="A20" s="76"/>
+      <c r="B20" s="11">
         <v>2887</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="19">
         <v>8949</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="88">
         <v>44565</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="89">
         <v>8949</v>
       </c>
-      <c r="H20" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="66" t="s">
+      <c r="H20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="67">
+      <c r="M20" s="53">
         <v>2906</v>
       </c>
-      <c r="N20" s="68" t="s">
+      <c r="N20" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="69">
+      <c r="O20" s="55">
         <v>3762.72</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15">
-        <v>2888</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="23">
-        <v>8700</v>
-      </c>
-      <c r="F21" s="24">
-        <v>44569</v>
-      </c>
-      <c r="G21" s="25">
-        <v>8700</v>
-      </c>
-      <c r="H21" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="70" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="71">
+      <c r="M21" s="57">
         <v>2904</v>
       </c>
-      <c r="N21" s="72" t="s">
+      <c r="N21" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="O21" s="73">
+      <c r="O21" s="59">
         <v>23047.8</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15">
-        <v>2889</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="23">
-        <v>2263</v>
-      </c>
-      <c r="F22" s="30">
-        <v>44569</v>
-      </c>
-      <c r="G22" s="25">
-        <v>2263</v>
-      </c>
-      <c r="H22" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="66" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="67">
+      <c r="M22" s="53">
         <v>2905</v>
       </c>
-      <c r="N22" s="68" t="s">
+      <c r="N22" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="69">
+      <c r="O22" s="55">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15">
-        <v>2890</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="23">
-        <v>2682</v>
-      </c>
-      <c r="F23" s="24">
-        <v>44564</v>
-      </c>
-      <c r="G23" s="25">
-        <v>2682</v>
-      </c>
-      <c r="H23" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="70" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="71">
+      <c r="M23" s="57">
         <v>2907</v>
       </c>
-      <c r="N23" s="72" t="s">
+      <c r="N23" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="73">
+      <c r="O23" s="59">
         <v>32989.599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15">
-        <v>2891</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="66" t="s">
+      <c r="A24" s="80"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="53">
         <v>2909</v>
       </c>
-      <c r="N24" s="68" t="s">
+      <c r="N24" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O24" s="69">
+      <c r="O24" s="55">
         <v>7705.81</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15">
-        <v>2892</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="23">
-        <v>9516</v>
-      </c>
-      <c r="F25" s="24">
-        <v>44566</v>
-      </c>
-      <c r="G25" s="25">
-        <v>9516</v>
-      </c>
-      <c r="H25" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="70" t="s">
+      <c r="A25" s="80"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="M25" s="71">
+      <c r="M25" s="57">
         <v>2910</v>
       </c>
-      <c r="N25" s="72" t="s">
+      <c r="N25" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="O25" s="73">
+      <c r="O25" s="59">
         <v>10836.36</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15">
-        <v>2893</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="66" t="s">
+      <c r="A26" s="80"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="M26" s="67">
+      <c r="M26" s="53">
         <v>2908</v>
       </c>
-      <c r="N26" s="68" t="s">
+      <c r="N26" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="O26" s="69">
+      <c r="O26" s="55">
         <v>4204</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15">
-        <v>2894</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="23">
-        <v>6522</v>
-      </c>
-      <c r="F27" s="24">
-        <v>44566</v>
-      </c>
-      <c r="G27" s="25">
-        <v>6522</v>
-      </c>
-      <c r="H27" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="70" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="71">
+      <c r="M27" s="57">
         <v>2911</v>
       </c>
-      <c r="N27" s="72" t="s">
+      <c r="N27" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="O27" s="73">
+      <c r="O27" s="59">
         <v>3544.89</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15">
-        <v>2895</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="23">
-        <v>8515</v>
-      </c>
-      <c r="F28" s="24">
-        <v>44566</v>
-      </c>
-      <c r="G28" s="25">
-        <v>8515</v>
-      </c>
-      <c r="H28" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="66" t="s">
+      <c r="A28" s="80"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="M28" s="67">
+      <c r="M28" s="53">
         <v>2912</v>
       </c>
-      <c r="N28" s="68" t="s">
+      <c r="N28" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="O28" s="69">
+      <c r="O28" s="55">
         <v>480.63</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15">
-        <v>2896</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="23">
-        <v>1679</v>
-      </c>
-      <c r="F29" s="30">
-        <v>44566</v>
-      </c>
-      <c r="G29" s="25">
-        <v>1679</v>
-      </c>
-      <c r="H29" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="70" t="s">
+      <c r="A29" s="80"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="M29" s="71">
+      <c r="M29" s="57">
         <v>2913</v>
       </c>
-      <c r="N29" s="72" t="s">
+      <c r="N29" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="73">
+      <c r="O29" s="59">
         <v>1119.23</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15">
-        <v>2897</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="23">
-        <v>9553</v>
-      </c>
-      <c r="F30" s="24">
-        <v>44572</v>
-      </c>
-      <c r="G30" s="25">
-        <v>9553</v>
-      </c>
-      <c r="H30" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="66" t="s">
+      <c r="A30" s="80"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="M30" s="67">
+      <c r="M30" s="53">
         <v>2915</v>
       </c>
-      <c r="N30" s="68" t="s">
+      <c r="N30" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="O30" s="69">
+      <c r="O30" s="55">
         <v>611.84</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15">
-        <v>2898</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="23">
-        <v>1230</v>
-      </c>
-      <c r="F31" s="30">
-        <v>44567</v>
-      </c>
-      <c r="G31" s="25">
-        <v>1230</v>
-      </c>
-      <c r="H31" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="70" t="s">
+      <c r="A31" s="80"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="71">
+      <c r="M31" s="57">
         <v>2916</v>
       </c>
-      <c r="N31" s="72" t="s">
+      <c r="N31" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="O31" s="73">
+      <c r="O31" s="59">
         <v>751.66</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15">
-        <v>2899</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="23">
-        <v>773</v>
-      </c>
-      <c r="F32" s="24">
-        <v>44567</v>
-      </c>
-      <c r="G32" s="25">
-        <v>773</v>
-      </c>
-      <c r="H32" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="66" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="M32" s="67">
+      <c r="M32" s="53">
         <v>2917</v>
       </c>
-      <c r="N32" s="68" t="s">
+      <c r="N32" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="69">
+      <c r="O32" s="55">
         <v>770.4</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15">
-        <v>2900</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="23">
-        <v>4029</v>
-      </c>
-      <c r="F33" s="24">
-        <v>44568</v>
-      </c>
-      <c r="G33" s="25">
-        <v>4029</v>
-      </c>
-      <c r="H33" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="70" t="s">
+      <c r="A33" s="80"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="M33" s="71">
+      <c r="M33" s="57">
         <v>2914</v>
       </c>
-      <c r="N33" s="72" t="s">
+      <c r="N33" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="O33" s="73">
+      <c r="O33" s="59">
         <v>2171.52</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15">
-        <v>2901</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="23">
-        <v>1284</v>
-      </c>
-      <c r="F34" s="24">
-        <v>44569</v>
-      </c>
-      <c r="G34" s="25">
-        <v>1284</v>
-      </c>
-      <c r="H34" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="66" t="s">
+      <c r="A34" s="80"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="M34" s="67">
+      <c r="M34" s="53">
         <v>2918</v>
       </c>
-      <c r="N34" s="68" t="s">
+      <c r="N34" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="69">
+      <c r="O34" s="55">
         <v>7765.34</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15">
-        <v>2902</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="23">
-        <v>6733</v>
-      </c>
-      <c r="F35" s="30">
-        <v>44572</v>
-      </c>
-      <c r="G35" s="25">
-        <v>6733</v>
-      </c>
-      <c r="H35" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="70" t="s">
+      <c r="A35" s="80"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="M35" s="71">
+      <c r="M35" s="57">
         <v>2920</v>
       </c>
-      <c r="N35" s="72" t="s">
+      <c r="N35" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="O35" s="73">
+      <c r="O35" s="59">
         <v>2074.52</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15">
-        <v>2903</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="66" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="M36" s="67">
+      <c r="M36" s="53">
         <v>2921</v>
       </c>
-      <c r="N36" s="68" t="s">
+      <c r="N36" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="O36" s="69">
+      <c r="O36" s="55">
         <v>674.1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15">
-        <v>2904</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="23">
-        <v>23048</v>
-      </c>
-      <c r="F37" s="24">
-        <v>44572</v>
-      </c>
-      <c r="G37" s="25">
-        <v>23048</v>
-      </c>
-      <c r="H37" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="70" t="s">
+      <c r="A37" s="80"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="M37" s="71">
+      <c r="M37" s="57">
         <v>2919</v>
       </c>
-      <c r="N37" s="72" t="s">
+      <c r="N37" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="O37" s="73">
+      <c r="O37" s="59">
         <v>1906.82</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15">
-        <v>2905</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="23">
-        <v>52</v>
-      </c>
-      <c r="F38" s="30">
-        <v>44572</v>
-      </c>
-      <c r="G38" s="25">
-        <v>52</v>
-      </c>
-      <c r="H38" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="66" t="s">
+      <c r="A38" s="80"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="M38" s="67">
+      <c r="M38" s="53">
         <v>2922</v>
       </c>
-      <c r="N38" s="68" t="s">
+      <c r="N38" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="O38" s="69">
+      <c r="O38" s="55">
         <v>934.92</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15">
-        <v>2906</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="23">
-        <v>3763</v>
-      </c>
-      <c r="F39" s="30">
-        <v>44572</v>
-      </c>
-      <c r="G39" s="25">
-        <v>3763</v>
-      </c>
-      <c r="H39" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="70" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="M39" s="71">
+      <c r="M39" s="57">
         <v>2923</v>
       </c>
-      <c r="N39" s="72" t="s">
+      <c r="N39" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="O39" s="73">
+      <c r="O39" s="59">
         <v>298.5</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15">
-        <v>2907</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="66" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="M40" s="67">
+      <c r="M40" s="53">
         <v>2924</v>
       </c>
-      <c r="N40" s="68" t="s">
+      <c r="N40" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="O40" s="69">
+      <c r="O40" s="55">
         <v>490.35</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15">
-        <v>2908</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="70" t="s">
+      <c r="A41" s="80"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="M41" s="71">
+      <c r="M41" s="57">
         <v>2925</v>
       </c>
-      <c r="N41" s="72" t="s">
+      <c r="N41" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="73">
+      <c r="O41" s="59">
         <v>1653.75</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15">
-        <v>2909</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="23">
-        <v>7706</v>
-      </c>
-      <c r="F42" s="24">
-        <v>44573</v>
-      </c>
-      <c r="G42" s="25">
-        <v>7706</v>
-      </c>
-      <c r="H42" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="66" t="s">
+      <c r="A42" s="80"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="M42" s="67">
+      <c r="M42" s="53">
         <v>2926</v>
       </c>
-      <c r="N42" s="68" t="s">
+      <c r="N42" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="69">
+      <c r="O42" s="55">
         <v>1618.36</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15">
-        <v>2910</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="70" t="s">
+      <c r="A43" s="80"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="M43" s="71">
+      <c r="M43" s="57">
         <v>2927</v>
       </c>
-      <c r="N43" s="72" t="s">
+      <c r="N43" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="73">
+      <c r="O43" s="59">
         <v>10155.64</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15">
-        <v>2911</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="23">
-        <v>3545</v>
-      </c>
-      <c r="F44" s="30">
-        <v>44573</v>
-      </c>
-      <c r="G44" s="25">
-        <v>3545</v>
-      </c>
-      <c r="H44" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="66" t="s">
+      <c r="A44" s="80"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="M44" s="67">
+      <c r="M44" s="53">
         <v>2928</v>
       </c>
-      <c r="N44" s="68" t="s">
+      <c r="N44" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="O44" s="69">
+      <c r="O44" s="55">
         <v>3578.47</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15">
-        <v>2912</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="70" t="s">
+      <c r="A45" s="80"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M45" s="71">
+      <c r="M45" s="57">
         <v>2929</v>
       </c>
-      <c r="N45" s="72" t="s">
+      <c r="N45" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="O45" s="73">
+      <c r="O45" s="59">
         <v>7584.46</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15">
-        <v>2913</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="23">
-        <v>1119</v>
-      </c>
-      <c r="F46" s="24">
-        <v>44573</v>
-      </c>
-      <c r="G46" s="25">
-        <v>1119</v>
-      </c>
-      <c r="H46" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="66" t="s">
+      <c r="A46" s="80"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="M46" s="67">
+      <c r="M46" s="53">
         <v>2930</v>
       </c>
-      <c r="N46" s="68" t="s">
+      <c r="N46" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="O46" s="69">
+      <c r="O46" s="55">
         <v>846.72</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15">
-        <v>2914</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="23">
-        <v>2172</v>
-      </c>
-      <c r="F47" s="24">
-        <v>44574</v>
-      </c>
-      <c r="G47" s="25">
-        <v>2172</v>
-      </c>
-      <c r="H47" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="70" t="s">
+      <c r="A47" s="80"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="M47" s="71">
+      <c r="M47" s="57">
         <v>2931</v>
       </c>
-      <c r="N47" s="72" t="s">
+      <c r="N47" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="O47" s="73">
+      <c r="O47" s="59">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15">
-        <v>2915</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="23">
-        <v>612</v>
-      </c>
-      <c r="F48" s="30">
-        <v>44575</v>
-      </c>
-      <c r="G48" s="25">
-        <v>612</v>
-      </c>
-      <c r="H48" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="66" t="s">
+      <c r="A48" s="80"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="M48" s="67">
+      <c r="M48" s="53">
         <v>2932</v>
       </c>
-      <c r="N48" s="68" t="s">
+      <c r="N48" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O48" s="69">
+      <c r="O48" s="55">
         <v>7106.87</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15">
-        <v>2916</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="23">
-        <v>752</v>
-      </c>
-      <c r="F49" s="30">
-        <v>44574</v>
-      </c>
-      <c r="G49" s="25">
-        <v>752</v>
-      </c>
-      <c r="H49" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="70" t="s">
+      <c r="A49" s="80"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="M49" s="71">
+      <c r="M49" s="57">
         <v>2933</v>
       </c>
-      <c r="N49" s="72" t="s">
+      <c r="N49" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="O49" s="73">
+      <c r="O49" s="59">
         <v>2547.2600000000002</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15">
-        <v>2917</v>
-      </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="23">
-        <v>770</v>
-      </c>
-      <c r="F50" s="24">
-        <v>44576</v>
-      </c>
-      <c r="G50" s="25">
-        <v>770</v>
-      </c>
-      <c r="H50" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="66" t="s">
+      <c r="A50" s="80"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="M50" s="67">
+      <c r="M50" s="53">
         <v>2934</v>
       </c>
-      <c r="N50" s="68" t="s">
+      <c r="N50" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="O50" s="69">
+      <c r="O50" s="55">
         <v>1656.69</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15">
-        <v>2918</v>
-      </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="70" t="s">
+      <c r="A51" s="80"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="M51" s="71">
+      <c r="M51" s="57">
         <v>2935</v>
       </c>
-      <c r="N51" s="72" t="s">
+      <c r="N51" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="O51" s="73">
+      <c r="O51" s="59">
         <v>816.8</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15">
-        <v>2919</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="23">
-        <v>1907</v>
-      </c>
-      <c r="F52" s="24">
-        <v>44574</v>
-      </c>
-      <c r="G52" s="25">
-        <v>1907</v>
-      </c>
-      <c r="H52" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="66" t="s">
+      <c r="A52" s="80"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="M52" s="67">
+      <c r="M52" s="53">
         <v>2936</v>
       </c>
-      <c r="N52" s="68" t="s">
+      <c r="N52" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="O52" s="69">
+      <c r="O52" s="55">
         <v>352.8</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15">
-        <v>2920</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="23">
-        <v>2075</v>
-      </c>
-      <c r="F53" s="24">
-        <v>44575</v>
-      </c>
-      <c r="G53" s="25">
-        <v>2075</v>
-      </c>
-      <c r="H53" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="70" t="s">
+      <c r="A53" s="80"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="M53" s="71">
+      <c r="M53" s="57">
         <v>2937</v>
       </c>
-      <c r="N53" s="72" t="s">
+      <c r="N53" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="O53" s="73">
+      <c r="O53" s="59">
         <v>1744.2</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15">
-        <v>2921</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="66" t="s">
+      <c r="A54" s="80"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="M54" s="67">
+      <c r="M54" s="53">
         <v>2938</v>
       </c>
-      <c r="N54" s="68" t="s">
+      <c r="N54" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="O54" s="69">
+      <c r="O54" s="55">
         <v>2014.28</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15">
-        <v>2922</v>
-      </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="23">
-        <v>935</v>
-      </c>
-      <c r="F55" s="24">
-        <v>44575</v>
-      </c>
-      <c r="G55" s="25">
-        <v>935</v>
-      </c>
-      <c r="H55" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="70" t="s">
+      <c r="A55" s="80"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="M55" s="71">
+      <c r="M55" s="57">
         <v>2939</v>
       </c>
-      <c r="N55" s="72" t="s">
+      <c r="N55" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="O55" s="73">
+      <c r="O55" s="59">
         <v>30059.25</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15">
-        <v>2923</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="23">
-        <v>299</v>
-      </c>
-      <c r="F56" s="24">
-        <v>44575</v>
-      </c>
-      <c r="G56" s="25">
-        <v>299</v>
-      </c>
-      <c r="H56" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="66" t="s">
+      <c r="A56" s="80"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="M56" s="67">
+      <c r="M56" s="53">
         <v>2940</v>
       </c>
-      <c r="N56" s="68" t="s">
+      <c r="N56" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="O56" s="69">
+      <c r="O56" s="55">
         <v>5307.9</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15">
-        <v>2924</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="23">
-        <v>490</v>
-      </c>
-      <c r="F57" s="24">
-        <v>44575</v>
-      </c>
-      <c r="G57" s="25">
-        <v>490</v>
-      </c>
-      <c r="H57" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="70" t="s">
+      <c r="A57" s="80"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="M57" s="71">
+      <c r="M57" s="57">
         <v>2941</v>
       </c>
-      <c r="N57" s="72" t="s">
+      <c r="N57" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="O57" s="73">
+      <c r="O57" s="59">
         <v>610.5</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15">
-        <v>2925</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="66" t="s">
+      <c r="A58" s="80"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="M58" s="67">
+      <c r="M58" s="53">
         <v>2943</v>
       </c>
-      <c r="N58" s="68" t="s">
+      <c r="N58" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="O58" s="69">
+      <c r="O58" s="55">
         <v>11556.96</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15">
-        <v>2926</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="70" t="s">
+      <c r="A59" s="80"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="M59" s="71">
+      <c r="M59" s="57">
         <v>2942</v>
       </c>
-      <c r="N59" s="72" t="s">
+      <c r="N59" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="O59" s="73">
+      <c r="O59" s="59">
         <v>3004</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15">
-        <v>2927</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="66" t="s">
+      <c r="A60" s="80"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="M60" s="67">
+      <c r="M60" s="53">
         <v>2944</v>
       </c>
-      <c r="N60" s="68" t="s">
+      <c r="N60" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="O60" s="69">
+      <c r="O60" s="55">
         <v>3313.26</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15">
-        <v>2928</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="70" t="s">
+      <c r="A61" s="80"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="M61" s="71">
+      <c r="M61" s="57">
         <v>2945</v>
       </c>
-      <c r="N61" s="72" t="s">
+      <c r="N61" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="O61" s="73">
+      <c r="O61" s="59">
         <v>7569.82</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15">
-        <v>2929</v>
-      </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="66" t="s">
+      <c r="A62" s="80"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="M62" s="67">
+      <c r="M62" s="53">
         <v>2946</v>
       </c>
-      <c r="N62" s="68" t="s">
+      <c r="N62" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="O62" s="69">
+      <c r="O62" s="55">
         <v>1061.4000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15">
-        <v>2930</v>
-      </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="70" t="s">
+      <c r="A63" s="80"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="M63" s="71">
+      <c r="M63" s="57">
         <v>2947</v>
       </c>
-      <c r="N63" s="72" t="s">
+      <c r="N63" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="73">
+      <c r="O63" s="59">
         <v>1248.52</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="15">
-        <v>2931</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="66" t="s">
+      <c r="A64" s="80"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="M64" s="67">
+      <c r="M64" s="53">
         <v>2950</v>
       </c>
-      <c r="N64" s="68" t="s">
+      <c r="N64" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="O64" s="69">
+      <c r="O64" s="55">
         <v>1024.9000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="15">
-        <v>2932</v>
-      </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="70" t="s">
+      <c r="A65" s="80"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="M65" s="71">
+      <c r="M65" s="57">
         <v>2951</v>
       </c>
-      <c r="N65" s="72" t="s">
+      <c r="N65" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="O65" s="73">
+      <c r="O65" s="59">
         <v>696.78</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15">
-        <v>2933</v>
-      </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="66" t="s">
+      <c r="A66" s="80"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="M66" s="67">
+      <c r="M66" s="53">
         <v>2948</v>
       </c>
-      <c r="N66" s="68" t="s">
+      <c r="N66" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O66" s="69">
+      <c r="O66" s="55">
         <v>7145.88</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15">
-        <v>2934</v>
-      </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="70" t="s">
+      <c r="A67" s="80"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="M67" s="71">
+      <c r="M67" s="57">
         <v>2949</v>
       </c>
-      <c r="N67" s="72" t="s">
+      <c r="N67" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="73">
+      <c r="O67" s="59">
         <v>755.58</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="15">
-        <v>2935</v>
-      </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="66" t="s">
+      <c r="A68" s="80"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="M68" s="67">
+      <c r="M68" s="53">
         <v>2952</v>
       </c>
-      <c r="N68" s="68" t="s">
+      <c r="N68" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="O68" s="69">
+      <c r="O68" s="55">
         <v>11207.62</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="15">
-        <v>2936</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="70" t="s">
+      <c r="A69" s="80"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="M69" s="71">
+      <c r="M69" s="57">
         <v>2953</v>
       </c>
-      <c r="N69" s="72" t="s">
+      <c r="N69" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="O69" s="73">
+      <c r="O69" s="59">
         <v>910.91</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
-      <c r="B70" s="15">
-        <v>2937</v>
-      </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="66" t="s">
+      <c r="A70" s="80"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="M70" s="67">
+      <c r="M70" s="53">
         <v>2954</v>
       </c>
-      <c r="N70" s="68" t="s">
+      <c r="N70" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="O70" s="69">
+      <c r="O70" s="55">
         <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
-      <c r="B71" s="15">
-        <v>2938</v>
-      </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="70" t="s">
+      <c r="A71" s="80"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="M71" s="71">
+      <c r="M71" s="57">
         <v>2955</v>
       </c>
-      <c r="N71" s="72" t="s">
+      <c r="N71" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="O71" s="73">
+      <c r="O71" s="59">
         <v>3810.8</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
-      <c r="B72" s="15">
-        <v>2939</v>
-      </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="66" t="s">
+      <c r="A72" s="80"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="M72" s="67">
+      <c r="M72" s="53">
         <v>2956</v>
       </c>
-      <c r="N72" s="68" t="s">
+      <c r="N72" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="O72" s="69">
+      <c r="O72" s="55">
         <v>903.6</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="15">
-        <v>2940</v>
-      </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="70" t="s">
+      <c r="A73" s="80"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="M73" s="71">
+      <c r="M73" s="57">
         <v>2957</v>
       </c>
-      <c r="N73" s="72" t="s">
+      <c r="N73" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="O73" s="73">
+      <c r="O73" s="59">
         <v>11651.38</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
-      <c r="B74" s="15">
-        <v>2941</v>
-      </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="66" t="s">
+      <c r="A74" s="80"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="M74" s="67">
+      <c r="M74" s="53">
         <v>2958</v>
       </c>
-      <c r="N74" s="68" t="s">
+      <c r="N74" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O74" s="69">
+      <c r="O74" s="55">
         <v>4800</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="15">
-        <v>2942</v>
-      </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="70" t="s">
+      <c r="A75" s="80"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="M75" s="71">
+      <c r="M75" s="57">
         <v>2959</v>
       </c>
-      <c r="N75" s="72" t="s">
+      <c r="N75" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="O75" s="73">
+      <c r="O75" s="59">
         <v>3795.25</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="26"/>
-      <c r="B76" s="15">
-        <v>2943</v>
-      </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="66" t="s">
+      <c r="A76" s="80"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="M76" s="67">
+      <c r="M76" s="53">
         <v>2960</v>
       </c>
-      <c r="N76" s="68" t="s">
+      <c r="N76" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="O76" s="69">
+      <c r="O76" s="55">
         <v>4488.7</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="26"/>
-      <c r="B77" s="15">
-        <v>2944</v>
-      </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="70" t="s">
+      <c r="A77" s="80"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="M77" s="71">
+      <c r="M77" s="57">
         <v>2961</v>
       </c>
-      <c r="N77" s="72" t="s">
+      <c r="N77" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="O77" s="73">
+      <c r="O77" s="59">
         <v>1905.4</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
-      <c r="B78" s="15">
-        <v>2945</v>
-      </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="66" t="s">
+      <c r="A78" s="80"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M78" s="67">
+      <c r="M78" s="53">
         <v>2962</v>
       </c>
-      <c r="N78" s="68" t="s">
+      <c r="N78" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O78" s="69">
+      <c r="O78" s="55">
         <v>7273.25</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="26"/>
-      <c r="B79" s="15">
-        <v>2946</v>
-      </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="21">
+      <c r="A79" s="80"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26"/>
-      <c r="B80" s="15">
-        <v>2947</v>
-      </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="21">
+      <c r="A80" s="80"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
-      <c r="B81" s="15">
-        <v>2948</v>
-      </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="21">
+      <c r="A81" s="80"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="26"/>
-      <c r="B82" s="15">
-        <v>2949</v>
-      </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="21">
+      <c r="A82" s="80"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="26"/>
-      <c r="B83" s="15">
-        <v>2950</v>
-      </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="21">
+      <c r="A83" s="80"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="26"/>
-      <c r="B84" s="15">
-        <v>2951</v>
-      </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="21">
+      <c r="A84" s="80"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
-      <c r="B85" s="15">
-        <v>2952</v>
-      </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="21">
+      <c r="A85" s="80"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="26"/>
-      <c r="B86" s="15">
-        <v>2953</v>
-      </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="21">
+      <c r="A86" s="80"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="26"/>
-      <c r="B87" s="15">
-        <v>2954</v>
-      </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="21">
+      <c r="A87" s="80"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="26"/>
-      <c r="B88" s="15">
-        <v>2955</v>
-      </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="21">
+      <c r="A88" s="80"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="26"/>
-      <c r="B89" s="15">
-        <v>2956</v>
-      </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="21">
+      <c r="A89" s="80"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="26"/>
-      <c r="B90" s="15">
-        <v>2957</v>
-      </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="21">
+      <c r="A90" s="80"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="26"/>
-      <c r="B91" s="15">
-        <v>2958</v>
-      </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="21">
+      <c r="A91" s="80"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="26"/>
-      <c r="B92" s="15">
-        <v>2959</v>
-      </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="21">
+      <c r="A92" s="80"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="26"/>
-      <c r="B93" s="15">
-        <v>2960</v>
-      </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="21">
+      <c r="A93" s="80"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="26"/>
-      <c r="B94" s="15">
-        <v>2961</v>
-      </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="21">
+      <c r="A94" s="80"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="26"/>
-      <c r="B95" s="15">
-        <v>2962</v>
-      </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="21">
+      <c r="A95" s="80"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="26"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="21">
+      <c r="A96" s="80"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="26"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="21">
+      <c r="A97" s="80"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="34"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="37">
-        <v>0</v>
-      </c>
-      <c r="F98" s="38"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="2"/>
+      <c r="A98" s="81"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="31">
+        <v>0</v>
+      </c>
+      <c r="F98" s="32"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="40"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="42">
+      <c r="B99" s="34"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="36">
         <f>SUM(E4:E98)</f>
-        <v>248345</v>
-      </c>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42">
+        <v>135621</v>
+      </c>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36">
         <f>SUM(G4:G98)</f>
-        <v>248345</v>
-      </c>
-      <c r="H99" s="43">
+        <v>135621</v>
+      </c>
+      <c r="H99" s="37">
         <f>SUM(H4:H98)</f>
         <v>0</v>
       </c>
-      <c r="I99" s="2"/>
+      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="40"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="2"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B101" s="40"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="48" t="s">
+      <c r="B101" s="34"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="45"/>
-      <c r="G101" s="49" t="s">
+      <c r="F101" s="39"/>
+      <c r="G101" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H101" s="47"/>
-      <c r="I101" s="2"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="40"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="49"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="2"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="40"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="62">
+      <c r="B103" s="34"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="70">
         <f>E99-G99</f>
         <v>0</v>
       </c>
-      <c r="F103" s="63"/>
-      <c r="G103" s="64"/>
-      <c r="I103" s="2"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="72"/>
+      <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B104" s="40"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="46"/>
-      <c r="I104" s="2"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="40"/>
+      <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B105" s="40"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="65" t="s">
+      <c r="B105" s="34"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="I105" s="2"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="73"/>
+      <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B106" s="40"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="46"/>
-      <c r="I106" s="2"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="40"/>
+      <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="26"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="50"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="51"/>
-      <c r="I107" s="2"/>
+      <c r="A107" s="77"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="45"/>
+      <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="40"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="46"/>
-      <c r="I108" s="2"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="40"/>
+      <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B109" s="40"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="46"/>
-      <c r="I109" s="2"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="40"/>
+      <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B110" s="40"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="46"/>
-      <c r="I110" s="2"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="40"/>
+      <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B111" s="40"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="46"/>
-      <c r="I111" s="2"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="40"/>
+      <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B112" s="40"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="46"/>
-      <c r="I112" s="2"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="40"/>
+      <c r="I112" s="1"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B113" s="40"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="46"/>
-      <c r="I113" s="2"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="40"/>
+      <c r="I113" s="1"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" s="40"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="46"/>
-      <c r="I114" s="2"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="40"/>
+      <c r="I114" s="1"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="40"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="46"/>
-      <c r="I115" s="2"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="40"/>
+      <c r="I115" s="1"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B116" s="40"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="46"/>
-      <c r="I116" s="2"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="40"/>
+      <c r="I116" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4220,13 +3960,3302 @@
     <mergeCell ref="E105:G105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:O116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="48" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="18" style="51" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="60" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.85546875" style="61" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" style="61" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="79"/>
+      <c r="B2" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="L3" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2888</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="19">
+        <v>8700</v>
+      </c>
+      <c r="F4" s="20">
+        <v>44569</v>
+      </c>
+      <c r="G4" s="21">
+        <v>8700</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" ref="H4:H98" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="L4" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="57">
+        <v>2888</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="59">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2889</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2263</v>
+      </c>
+      <c r="F5" s="25">
+        <v>44569</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2263</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="L5" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="53">
+        <v>2889</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="55">
+        <v>2263.0500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2890</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2682</v>
+      </c>
+      <c r="F6" s="20">
+        <v>44564</v>
+      </c>
+      <c r="G6" s="21">
+        <v>2682</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="L6" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="53">
+        <v>2890</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="55">
+        <v>2681.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2891</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="87">
+        <v>2242</v>
+      </c>
+      <c r="F7" s="25">
+        <v>44585</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2242</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="L7" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="57">
+        <v>2891</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="59">
+        <v>2242.1999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2892</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="19">
+        <v>9516</v>
+      </c>
+      <c r="F8" s="20">
+        <v>44566</v>
+      </c>
+      <c r="G8" s="21">
+        <v>9516</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="L8" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="57">
+        <v>2892</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="59">
+        <v>9516.4699999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2893</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="86">
+        <v>34740.410000000003</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>34740.410000000003</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="L9" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="53">
+        <v>2893</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="55">
+        <v>34740.410000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2894</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="19">
+        <v>6522</v>
+      </c>
+      <c r="F10" s="20">
+        <v>44566</v>
+      </c>
+      <c r="G10" s="21">
+        <v>6522</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="53">
+        <v>2894</v>
+      </c>
+      <c r="N10" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="55">
+        <v>6521.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2895</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19">
+        <v>8515</v>
+      </c>
+      <c r="F11" s="20">
+        <v>44566</v>
+      </c>
+      <c r="G11" s="21">
+        <v>8515</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="57">
+        <v>2895</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="59">
+        <v>8515.2000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2896</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1679</v>
+      </c>
+      <c r="F12" s="25">
+        <v>44566</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1679</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="53">
+        <v>2896</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="55">
+        <v>1678.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2897</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="19">
+        <v>9553</v>
+      </c>
+      <c r="F13" s="20">
+        <v>44572</v>
+      </c>
+      <c r="G13" s="21">
+        <v>9553</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="53">
+        <v>2897</v>
+      </c>
+      <c r="N13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="55">
+        <v>9553.0300000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2898</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1230</v>
+      </c>
+      <c r="F14" s="25">
+        <v>44567</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1230</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="57">
+        <v>2898</v>
+      </c>
+      <c r="N14" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="59">
+        <v>1230.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2899</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="19">
+        <v>773</v>
+      </c>
+      <c r="F15" s="20">
+        <v>44567</v>
+      </c>
+      <c r="G15" s="21">
+        <v>773</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="57">
+        <v>2899</v>
+      </c>
+      <c r="N15" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="59">
+        <v>773.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2900</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4029</v>
+      </c>
+      <c r="F16" s="20">
+        <v>44568</v>
+      </c>
+      <c r="G16" s="21">
+        <v>4029</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="53">
+        <v>2900</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="55">
+        <v>4028.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2901</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1284</v>
+      </c>
+      <c r="F17" s="20">
+        <v>44569</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1284</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="57">
+        <v>2901</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="59">
+        <v>1284.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2902</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="19">
+        <v>6733</v>
+      </c>
+      <c r="F18" s="25">
+        <v>44572</v>
+      </c>
+      <c r="G18" s="21">
+        <v>6733</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="53">
+        <v>2902</v>
+      </c>
+      <c r="N18" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="55">
+        <v>6733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2903</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="84">
+        <v>10129</v>
+      </c>
+      <c r="F19" s="20">
+        <v>44579</v>
+      </c>
+      <c r="G19" s="21">
+        <v>10129</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="57">
+        <v>2903</v>
+      </c>
+      <c r="N19" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="59">
+        <v>10128.549999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2904</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="19">
+        <v>23048</v>
+      </c>
+      <c r="F20" s="20">
+        <v>44572</v>
+      </c>
+      <c r="G20" s="21">
+        <v>23048</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="57">
+        <v>2904</v>
+      </c>
+      <c r="N20" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="59">
+        <v>23047.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2905</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="19">
+        <v>52</v>
+      </c>
+      <c r="F21" s="25">
+        <v>44572</v>
+      </c>
+      <c r="G21" s="21">
+        <v>52</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="53">
+        <v>2905</v>
+      </c>
+      <c r="N21" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2906</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="19">
+        <v>3763</v>
+      </c>
+      <c r="F22" s="25">
+        <v>44572</v>
+      </c>
+      <c r="G22" s="21">
+        <v>3763</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="53">
+        <v>2906</v>
+      </c>
+      <c r="N22" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="55">
+        <v>3762.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2907</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="87">
+        <v>32989.599999999999</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="17">
+        <f t="shared" si="0"/>
+        <v>32989.599999999999</v>
+      </c>
+      <c r="L23" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="57">
+        <v>2907</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="59">
+        <v>32989.599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2908</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="55">
+        <v>4204</v>
+      </c>
+      <c r="F24" s="25">
+        <v>44581</v>
+      </c>
+      <c r="G24" s="21">
+        <v>4204</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="53">
+        <v>2908</v>
+      </c>
+      <c r="N24" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="55">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2909</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="19">
+        <v>7706</v>
+      </c>
+      <c r="F25" s="20">
+        <v>44573</v>
+      </c>
+      <c r="G25" s="21">
+        <v>7706</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="53">
+        <v>2909</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="55">
+        <v>7705.81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2910</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="87">
+        <v>10836</v>
+      </c>
+      <c r="F26" s="25">
+        <v>44583</v>
+      </c>
+      <c r="G26" s="21">
+        <v>10836</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="57">
+        <v>2910</v>
+      </c>
+      <c r="N26" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="59">
+        <v>10836.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2911</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="19">
+        <v>3545</v>
+      </c>
+      <c r="F27" s="25">
+        <v>44573</v>
+      </c>
+      <c r="G27" s="21">
+        <v>3545</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="57">
+        <v>2911</v>
+      </c>
+      <c r="N27" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="O27" s="59">
+        <v>3544.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2912</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="86">
+        <v>481</v>
+      </c>
+      <c r="F28" s="20">
+        <v>44582</v>
+      </c>
+      <c r="G28" s="21">
+        <v>481</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="53">
+        <v>2912</v>
+      </c>
+      <c r="N28" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28" s="55">
+        <v>480.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2913</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="19">
+        <v>1119</v>
+      </c>
+      <c r="F29" s="20">
+        <v>44573</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1119</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="57">
+        <v>2913</v>
+      </c>
+      <c r="N29" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="59">
+        <v>1119.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2914</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2172</v>
+      </c>
+      <c r="F30" s="20">
+        <v>44574</v>
+      </c>
+      <c r="G30" s="21">
+        <v>2172</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" s="57">
+        <v>2914</v>
+      </c>
+      <c r="N30" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="59">
+        <v>2171.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2915</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="19">
+        <v>612</v>
+      </c>
+      <c r="F31" s="25">
+        <v>44575</v>
+      </c>
+      <c r="G31" s="21">
+        <v>612</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="53">
+        <v>2915</v>
+      </c>
+      <c r="N31" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="55">
+        <v>611.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2916</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="19">
+        <v>752</v>
+      </c>
+      <c r="F32" s="25">
+        <v>44574</v>
+      </c>
+      <c r="G32" s="21">
+        <v>752</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="57">
+        <v>2916</v>
+      </c>
+      <c r="N32" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="59">
+        <v>751.66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2917</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="19">
+        <v>770</v>
+      </c>
+      <c r="F33" s="20">
+        <v>44576</v>
+      </c>
+      <c r="G33" s="21">
+        <v>770</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="53">
+        <v>2917</v>
+      </c>
+      <c r="N33" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="55">
+        <v>770.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2918</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="55">
+        <v>7765.34</v>
+      </c>
+      <c r="F34" s="20">
+        <v>44577</v>
+      </c>
+      <c r="G34" s="21">
+        <v>7765</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="0"/>
+        <v>0.34000000000014552</v>
+      </c>
+      <c r="L34" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="53">
+        <v>2918</v>
+      </c>
+      <c r="N34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="O34" s="55">
+        <v>7765.34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2919</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1907</v>
+      </c>
+      <c r="F35" s="20">
+        <v>44574</v>
+      </c>
+      <c r="G35" s="21">
+        <v>1907</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" s="57">
+        <v>2919</v>
+      </c>
+      <c r="N35" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" s="59">
+        <v>1906.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2920</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="19">
+        <v>2075</v>
+      </c>
+      <c r="F36" s="20">
+        <v>44575</v>
+      </c>
+      <c r="G36" s="21">
+        <v>2075</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M36" s="57">
+        <v>2920</v>
+      </c>
+      <c r="N36" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="O36" s="59">
+        <v>2074.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2921</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="86">
+        <v>674</v>
+      </c>
+      <c r="F37" s="20">
+        <v>44582</v>
+      </c>
+      <c r="G37" s="21">
+        <v>674</v>
+      </c>
+      <c r="H37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="M37" s="53">
+        <v>2921</v>
+      </c>
+      <c r="N37" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="55">
+        <v>674.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="11">
+        <v>2922</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="19">
+        <v>935</v>
+      </c>
+      <c r="F38" s="20">
+        <v>44575</v>
+      </c>
+      <c r="G38" s="21">
+        <v>935</v>
+      </c>
+      <c r="H38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38" s="53">
+        <v>2922</v>
+      </c>
+      <c r="N38" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="O38" s="55">
+        <v>934.92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="11">
+        <v>2923</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="19">
+        <v>299</v>
+      </c>
+      <c r="F39" s="20">
+        <v>44575</v>
+      </c>
+      <c r="G39" s="21">
+        <v>299</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39" s="57">
+        <v>2923</v>
+      </c>
+      <c r="N39" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="59">
+        <v>298.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2924</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="19">
+        <v>490</v>
+      </c>
+      <c r="F40" s="20">
+        <v>44575</v>
+      </c>
+      <c r="G40" s="21">
+        <v>490</v>
+      </c>
+      <c r="H40" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" s="53">
+        <v>2924</v>
+      </c>
+      <c r="N40" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="55">
+        <v>490.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="11">
+        <v>2925</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="59">
+        <v>1654</v>
+      </c>
+      <c r="F41" s="20">
+        <v>44590</v>
+      </c>
+      <c r="G41" s="21">
+        <v>1654</v>
+      </c>
+      <c r="H41" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" s="57">
+        <v>2925</v>
+      </c>
+      <c r="N41" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="O41" s="59">
+        <v>1653.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="11">
+        <v>2926</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="55">
+        <v>1618</v>
+      </c>
+      <c r="F42" s="20">
+        <v>44577</v>
+      </c>
+      <c r="G42" s="21">
+        <v>1618</v>
+      </c>
+      <c r="H42" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M42" s="53">
+        <v>2926</v>
+      </c>
+      <c r="N42" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" s="55">
+        <v>1618.36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="11">
+        <v>2927</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="59">
+        <v>10156</v>
+      </c>
+      <c r="F43" s="20">
+        <v>44588</v>
+      </c>
+      <c r="G43" s="21">
+        <v>10156</v>
+      </c>
+      <c r="H43" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" s="57">
+        <v>2927</v>
+      </c>
+      <c r="N43" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="O43" s="59">
+        <v>10155.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="11">
+        <v>2928</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="55">
+        <v>3578</v>
+      </c>
+      <c r="F44" s="20">
+        <v>44579</v>
+      </c>
+      <c r="G44" s="21">
+        <v>3578</v>
+      </c>
+      <c r="H44" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="M44" s="53">
+        <v>2928</v>
+      </c>
+      <c r="N44" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O44" s="55">
+        <v>3578.47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="11">
+        <v>2929</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="59">
+        <v>7584</v>
+      </c>
+      <c r="F45" s="20">
+        <v>44580</v>
+      </c>
+      <c r="G45" s="21">
+        <v>7584</v>
+      </c>
+      <c r="H45" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="M45" s="57">
+        <v>2929</v>
+      </c>
+      <c r="N45" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="O45" s="59">
+        <v>7584.46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="11">
+        <v>2930</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="55">
+        <v>847</v>
+      </c>
+      <c r="F46" s="20">
+        <v>44580</v>
+      </c>
+      <c r="G46" s="21">
+        <v>847</v>
+      </c>
+      <c r="H46" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M46" s="53">
+        <v>2930</v>
+      </c>
+      <c r="N46" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O46" s="55">
+        <v>846.72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="11">
+        <v>2931</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="59">
+        <v>91</v>
+      </c>
+      <c r="F47" s="25">
+        <v>44580</v>
+      </c>
+      <c r="G47" s="21">
+        <v>91</v>
+      </c>
+      <c r="H47" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="M47" s="57">
+        <v>2931</v>
+      </c>
+      <c r="N47" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="59">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2932</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="55">
+        <v>7107</v>
+      </c>
+      <c r="F48" s="20">
+        <v>44582</v>
+      </c>
+      <c r="G48" s="21">
+        <v>7107</v>
+      </c>
+      <c r="H48" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="M48" s="53">
+        <v>2932</v>
+      </c>
+      <c r="N48" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="O48" s="55">
+        <v>7106.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="11">
+        <v>2933</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="59">
+        <v>2547</v>
+      </c>
+      <c r="F49" s="20">
+        <v>44581</v>
+      </c>
+      <c r="G49" s="21">
+        <v>2547</v>
+      </c>
+      <c r="H49" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="M49" s="57">
+        <v>2933</v>
+      </c>
+      <c r="N49" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="O49" s="59">
+        <v>2547.2600000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="11">
+        <v>2934</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="55">
+        <v>1657</v>
+      </c>
+      <c r="F50" s="20">
+        <v>44582</v>
+      </c>
+      <c r="G50" s="21">
+        <v>1657</v>
+      </c>
+      <c r="H50" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M50" s="53">
+        <v>2934</v>
+      </c>
+      <c r="N50" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="O50" s="55">
+        <v>1656.69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2935</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="59">
+        <v>817</v>
+      </c>
+      <c r="F51" s="25">
+        <v>44586</v>
+      </c>
+      <c r="G51" s="21">
+        <v>817</v>
+      </c>
+      <c r="H51" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M51" s="57">
+        <v>2935</v>
+      </c>
+      <c r="N51" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" s="59">
+        <v>816.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2936</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="55">
+        <v>353</v>
+      </c>
+      <c r="F52" s="20">
+        <v>44582</v>
+      </c>
+      <c r="G52" s="21">
+        <v>353</v>
+      </c>
+      <c r="H52" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M52" s="53">
+        <v>2936</v>
+      </c>
+      <c r="N52" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="O52" s="55">
+        <v>352.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="11">
+        <v>2937</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="59">
+        <v>1744</v>
+      </c>
+      <c r="F53" s="20">
+        <v>44582</v>
+      </c>
+      <c r="G53" s="21">
+        <v>1744</v>
+      </c>
+      <c r="H53" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M53" s="57">
+        <v>2937</v>
+      </c>
+      <c r="N53" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="O53" s="59">
+        <v>1744.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="11">
+        <v>2938</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="55">
+        <v>2014</v>
+      </c>
+      <c r="F54" s="25">
+        <v>44582</v>
+      </c>
+      <c r="G54" s="21">
+        <v>2014</v>
+      </c>
+      <c r="H54" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M54" s="53">
+        <v>2938</v>
+      </c>
+      <c r="N54" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="O54" s="55">
+        <v>2014.28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="11">
+        <v>2939</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="59">
+        <v>30059</v>
+      </c>
+      <c r="F55" s="25">
+        <v>44582</v>
+      </c>
+      <c r="G55" s="21">
+        <v>30059</v>
+      </c>
+      <c r="H55" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M55" s="57">
+        <v>2939</v>
+      </c>
+      <c r="N55" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="O55" s="59">
+        <v>30059.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="11">
+        <v>2940</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="55">
+        <v>5308</v>
+      </c>
+      <c r="F56" s="20">
+        <v>44586</v>
+      </c>
+      <c r="G56" s="21">
+        <v>5308</v>
+      </c>
+      <c r="H56" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M56" s="53">
+        <v>2940</v>
+      </c>
+      <c r="N56" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="O56" s="55">
+        <v>5307.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2941</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="59">
+        <v>611</v>
+      </c>
+      <c r="F57" s="20">
+        <v>44582</v>
+      </c>
+      <c r="G57" s="21">
+        <v>611</v>
+      </c>
+      <c r="H57" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M57" s="57">
+        <v>2941</v>
+      </c>
+      <c r="N57" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="O57" s="59">
+        <v>610.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="11">
+        <v>2942</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="59">
+        <v>3004</v>
+      </c>
+      <c r="F58" s="20">
+        <v>44587</v>
+      </c>
+      <c r="G58" s="21">
+        <v>3004</v>
+      </c>
+      <c r="H58" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="M58" s="57">
+        <v>2942</v>
+      </c>
+      <c r="N58" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58" s="59">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="11">
+        <v>2943</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="55">
+        <v>11557</v>
+      </c>
+      <c r="F59" s="20">
+        <v>44591</v>
+      </c>
+      <c r="G59" s="21">
+        <v>11557</v>
+      </c>
+      <c r="H59" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="M59" s="53">
+        <v>2943</v>
+      </c>
+      <c r="N59" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="O59" s="55">
+        <v>11556.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2944</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="55">
+        <v>3313.26</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="17">
+        <f t="shared" si="0"/>
+        <v>3313.26</v>
+      </c>
+      <c r="L60" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="M60" s="53">
+        <v>2944</v>
+      </c>
+      <c r="N60" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="55">
+        <v>3313.26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2945</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="59">
+        <v>7570</v>
+      </c>
+      <c r="F61" s="20">
+        <v>44588</v>
+      </c>
+      <c r="G61" s="21">
+        <v>7570</v>
+      </c>
+      <c r="H61" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="M61" s="57">
+        <v>2945</v>
+      </c>
+      <c r="N61" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="O61" s="59">
+        <v>7569.82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2946</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="55">
+        <v>1061</v>
+      </c>
+      <c r="F62" s="20">
+        <v>44587</v>
+      </c>
+      <c r="G62" s="21">
+        <v>1061</v>
+      </c>
+      <c r="H62" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="M62" s="53">
+        <v>2946</v>
+      </c>
+      <c r="N62" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O62" s="55">
+        <v>1061.4000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2947</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="59">
+        <v>1249</v>
+      </c>
+      <c r="F63" s="20">
+        <v>44587</v>
+      </c>
+      <c r="G63" s="21">
+        <v>1249</v>
+      </c>
+      <c r="H63" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M63" s="57">
+        <v>2947</v>
+      </c>
+      <c r="N63" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="O63" s="59">
+        <v>1248.52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2948</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="55">
+        <v>7146</v>
+      </c>
+      <c r="F64" s="20">
+        <v>44588</v>
+      </c>
+      <c r="G64" s="21">
+        <v>7146</v>
+      </c>
+      <c r="H64" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="M64" s="53">
+        <v>2948</v>
+      </c>
+      <c r="N64" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="O64" s="55">
+        <v>7145.88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2949</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="59">
+        <v>756</v>
+      </c>
+      <c r="F65" s="20">
+        <v>44588</v>
+      </c>
+      <c r="G65" s="21">
+        <v>756</v>
+      </c>
+      <c r="H65" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="M65" s="57">
+        <v>2949</v>
+      </c>
+      <c r="N65" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="O65" s="59">
+        <v>755.58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2950</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="55">
+        <v>1025</v>
+      </c>
+      <c r="F66" s="20">
+        <v>44588</v>
+      </c>
+      <c r="G66" s="21">
+        <v>1025</v>
+      </c>
+      <c r="H66" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="M66" s="53">
+        <v>2950</v>
+      </c>
+      <c r="N66" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O66" s="55">
+        <v>1024.9000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="11">
+        <v>2951</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="59">
+        <v>697</v>
+      </c>
+      <c r="F67" s="20">
+        <v>44588</v>
+      </c>
+      <c r="G67" s="21">
+        <v>697</v>
+      </c>
+      <c r="H67" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="M67" s="57">
+        <v>2951</v>
+      </c>
+      <c r="N67" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="O67" s="59">
+        <v>696.78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="11">
+        <v>2952</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="55">
+        <v>11207.62</v>
+      </c>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="17">
+        <f t="shared" si="0"/>
+        <v>11207.62</v>
+      </c>
+      <c r="L68" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="M68" s="53">
+        <v>2952</v>
+      </c>
+      <c r="N68" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="O68" s="55">
+        <v>11207.62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2953</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="59">
+        <v>911</v>
+      </c>
+      <c r="F69" s="20">
+        <v>44589</v>
+      </c>
+      <c r="G69" s="21">
+        <v>911</v>
+      </c>
+      <c r="H69" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="M69" s="57">
+        <v>2953</v>
+      </c>
+      <c r="N69" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="O69" s="59">
+        <v>910.91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2954</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="55">
+        <v>222</v>
+      </c>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="17">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="L70" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="M70" s="53">
+        <v>2954</v>
+      </c>
+      <c r="N70" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="O70" s="55">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="11">
+        <v>2955</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="59">
+        <v>3811</v>
+      </c>
+      <c r="F71" s="20">
+        <v>44591</v>
+      </c>
+      <c r="G71" s="21">
+        <v>3811</v>
+      </c>
+      <c r="H71" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="M71" s="57">
+        <v>2955</v>
+      </c>
+      <c r="N71" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="O71" s="59">
+        <v>3810.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="11">
+        <v>2956</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="55">
+        <v>903.6</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="17">
+        <f t="shared" si="0"/>
+        <v>903.6</v>
+      </c>
+      <c r="L72" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="M72" s="53">
+        <v>2956</v>
+      </c>
+      <c r="N72" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O72" s="55">
+        <v>903.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="11">
+        <v>2957</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="59">
+        <v>11651.38</v>
+      </c>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="17">
+        <f t="shared" si="0"/>
+        <v>11651.38</v>
+      </c>
+      <c r="L73" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="M73" s="57">
+        <v>2957</v>
+      </c>
+      <c r="N73" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="O73" s="59">
+        <v>11651.38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="11">
+        <v>2958</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="55">
+        <v>4800</v>
+      </c>
+      <c r="F74" s="20"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="17">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="L74" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="M74" s="53">
+        <v>2958</v>
+      </c>
+      <c r="N74" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="O74" s="55">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="11">
+        <v>2959</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="59">
+        <v>3795.25</v>
+      </c>
+      <c r="F75" s="20"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="17">
+        <f t="shared" si="0"/>
+        <v>3795.25</v>
+      </c>
+      <c r="L75" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="M75" s="57">
+        <v>2959</v>
+      </c>
+      <c r="N75" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="O75" s="59">
+        <v>3795.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2960</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="55">
+        <v>4488.7</v>
+      </c>
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="17">
+        <f t="shared" si="0"/>
+        <v>4488.7</v>
+      </c>
+      <c r="L76" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="M76" s="53">
+        <v>2960</v>
+      </c>
+      <c r="N76" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="O76" s="55">
+        <v>4488.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="11">
+        <v>2961</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="59">
+        <v>1905.4</v>
+      </c>
+      <c r="F77" s="20"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="17">
+        <f t="shared" si="0"/>
+        <v>1905.4</v>
+      </c>
+      <c r="L77" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="M77" s="57">
+        <v>2961</v>
+      </c>
+      <c r="N77" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="O77" s="59">
+        <v>1905.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="11">
+        <v>2962</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="55">
+        <v>7273.25</v>
+      </c>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="17">
+        <f t="shared" si="0"/>
+        <v>7273.25</v>
+      </c>
+      <c r="L78" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M78" s="53">
+        <v>2962</v>
+      </c>
+      <c r="N78" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="O78" s="55">
+        <v>7273.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="80"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="80"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="80"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="80"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="80"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="80"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="80"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="80"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="80"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="80"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="80"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="80"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="80"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="80"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="80"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="80"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="80"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="80"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="80"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="81"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="31">
+        <v>0</v>
+      </c>
+      <c r="F98" s="32"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="34"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="36">
+        <f>SUM(E4:E98)</f>
+        <v>382877.81</v>
+      </c>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36">
+        <f>SUM(G4:G98)</f>
+        <v>265587</v>
+      </c>
+      <c r="H99" s="37">
+        <f>SUM(H4:H98)</f>
+        <v>117290.81</v>
+      </c>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="34"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B101" s="34"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="39"/>
+      <c r="G101" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="41"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="34"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="34"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="70">
+        <f>E99-G99</f>
+        <v>117290.81</v>
+      </c>
+      <c r="F103" s="71"/>
+      <c r="G103" s="72"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="34"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="40"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="34"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="73"/>
+      <c r="G105" s="73"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="34"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="40"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="77"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="45"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="34"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="40"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="34"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="40"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="34"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="40"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="34"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="40"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="34"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="40"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="34"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="40"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="34"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="40"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="34"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="40"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="34"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="40"/>
+      <c r="I116" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L4:O78">
+    <sortCondition ref="M4:M78"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="E105:G105"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4237,8 +7266,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
